--- a/Mifos Automation Excels/Client/4638-EI-DB-DL-SPDUEDATEFEEon10JAN2015-DISB-01JAN2015-FC-15JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4638-EI-DB-DL-SPDUEDATEFEEon10JAN2015-DISB-01JAN2015-FC-15JAN2015.xlsx
@@ -140,7 +140,7 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>4638-EI-DB-DL-SPDUEDATEFEEon10JAN2015-DISB-01JAN2015-FC-15JAN2015</t>
+    <t>4629-EI-DB-DL-DISB-01JAN2015-FC-15JAN2015</t>
   </si>
 </sst>
 </file>
